--- a/artifacts/recipes/new_data/allrecipescom/japaneese/japanese_appetizers.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/japaneese/japanese_appetizers.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699642135-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Japanese Appetizers</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699642139-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1JZP5jBg66Wlfzs1Tr7NU1aLtGM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1451x0:1453x2):format(webp)/9422662-e5cb98d115b34c27988bc1d379da68b1.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244651/green-tea-kasutera-green-tea-bread/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Green Tea Kasutera (Green Tea Bread)</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6 \n\n\nYield:\n1 small loaf"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup white sugar\n\n\n4  eggs, separated\n\n\n2 tablespoons grapeseed oil\n\n\n2 tablespoons honey\n\n\n2 tablespoons milk\n\n\n1 cup all-purpose flour\n\n\n2 teaspoons green tea powder (matcha)"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup white sugar\n\n\n4  eggs, separated\n\n\n2 tablespoons grapeseed oil\n\n\n2 tablespoons honey\n\n\n2 tablespoons milk\n\n\n1 cup all-purpose flour\n\n\n2 teaspoons green tea powder (matcha)'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 320 degrees F (160 degrees C). Grease a small loaf pan."},{"recipe_directions":"Beat sugar and egg whites together in a bowl using an electric mixer until stiff peaks form. Add egg yolk and mix well. Stir grapeseed oil, honey, and milk into egg mixture."},{"recipe_directions":"Sift flour and green tea powder 2 times into a bowl; mix into egg mixture. Pour batter into prepared pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted in the center comes out clean, about 50 minutes."},{"recipe_directions":"Olive oil or vegetable oil can be substituted for the grapeseed, if desired."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"274\nCalories\n\n\n8g \nFat\n\n\n45g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699642143-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UoibKkd-51KnPD306dd6VV8MufI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8230625-bded8fb77c4e464c9b21391d9c1c2884.jpg"
@@ -268,59 +605,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/285116/how-to-make-rice-balls-onigiri/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>How to Make Rice Balls (Onigiri)</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n2 \n\n\nYield:\n6 rice balls"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup short-grain rice, rinsed\n\n\n⅔ cup water\n\n\n3 sheets nori (dry seaweed), cut into 1-inch strips\n\n\n  salt to taste\n\n\n  seasoned sesame seeds to taste\n\n\n  shiso with hijiki (dried seaweed flakes) to taste"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup short-grain rice, rinsed\n\n\n⅔ cup water\n\n\n3 sheets nori (dry seaweed), cut into 1-inch strips\n\n\n  salt to taste\n\n\n  seasoned sesame seeds to taste\n\n\n  shiso with hijiki (dried seaweed flakes) to taste'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine rice and water in a heavy-bottomed pot with a tight-fitting lid. Soak for 20 to 30 minutes. Cover and bring to a boil over medium heat. Once water is boiling, reduce heat to low and cook until water is completely absorbed, 12 to 13 minutes. Remove from the heat; keep covered and steam for another 10 minutes. Remove lid and cool to room temperature, about 20 minutes."},{"recipe_directions":"Wet your hands and form small amounts of rice into triangle shapes if possible, or round balls. Wrap each onigiri with a strip of nori. Season with salt and garnish with sesame seeds and seaweed flakes."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Asian"},{"recipe_tags":"Japanese"},{"recipe_tags":"Main Dishes"},{"recipe_tags":"Sushi Recipes"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"240\nCalories\n\n\n0g \nFat\n\n\n53g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699642146-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rTx0x1-IJQis_-c0BvPKjcLIKmo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1023x0:1025x2):format(webp)/5571917-a008269d9292460dba22dcaf3bf75759.jpg"
@@ -333,59 +666,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257669/black-sesame-pudding/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Black Sesame Pudding</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n3 mins\n\n\nAdditional Time:\n 2 hrs 5 mins\n\n\nTotal Time:\n 2 hrs 18 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 tablespoons water\n\n\n2 teaspoons powdered unflavored gelatin\n\n\n1 ½ cups milk\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons black sesame paste"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 tablespoons water\n\n\n2 teaspoons powdered unflavored gelatin\n\n\n1 ½ cups milk\n\n\n3 tablespoons white sugar\n\n\n2 tablespoons black sesame paste'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir water and gelatin together in a bowl until gelatin dissolves."},{"recipe_directions":"Combine milk, sugar, and black sesame paste in a saucepan over medium heat; cook and stir until sugar melts, 2 to 4 minutes. Stir gelatin mixture into milk mixture; cook and stir pudding for 1 to 2 minutes. Remove from heat."},{"recipe_directions":"Chill pudding in the saucepan at room temperature for 5 minutes. Pour pudding into small bowls and refrigerate until chilled and set, about 2 hours."},{"recipe_directions":"The mixture will come out watery-looking but it will turn out fine as long as you put it in the fridge. And remember, milk disintegrates when it boils, so be careful with the heat. Whipped cream and fruit can also be used as a topping."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Japanese"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"89\nCalories\n\n\n4g \nFat\n\n\n10g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699642150-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/x6giMLpsOLvVllk_GtXS-vSNAKA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/879272-04f353c65cdb4c3aa0d844224bf7db86.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218058/beef-kushiyaki/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Beef Kushiyaki</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 ½ tablespoons mirin (Japanese sweet wine)\n\n\n1 clove garlic, minced\n\n\n⅓ cup soy sauce\n\n\n⅛ teaspoon monosodium glutamate (such as Aji-No-Moto®)\n\n\n⅓ cup white sugar\n\n\n1 pound beef sirloin steak, cut paper-thin\n\n\n3  green onions, cut into 2-inch slices\n\n\n  bamboo skewers"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 ½ tablespoons mirin (Japanese sweet wine)\n\n\n1 clove garlic, minced\n\n\n⅓ cup soy sauce\n\n\n⅛ teaspoon monosodium glutamate (such as Aji-No-Moto®)\n\n\n⅓ cup white sugar\n\n\n1 pound beef sirloin steak, cut paper-thin\n\n\n3  green onions, cut into 2-inch slices\n\n\n  bamboo skewers'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, mix the mirin, garlic, soy sauce, monosodium glutamate, and sugar; stir to dissolve the sugar. Place the beef and green onions into the marinade, stir to coat with marinade, and allow to stand for 30 minutes. Soak bamboo skewers in water."},{"recipe_directions":"Preheat the oven's broiler and set the oven rack about 6 inches from the heat source."},{"recipe_directions":"Roll a slice of thin beef around a piece of green onion; skewer the roll with 2 bamboo skewers, place about 1/2 inch apart. Repeat twice more, placing 3 beef rolls onto the 2 skewers. Repeat with remaining beef, green onion, and skewers until all the beef is rolled up. Place skewers onto a broiling pan. Discard used marinade."},{"recipe_directions":"Broil until browned on both sides, about 3 to 3 1/2 minutes per side."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Beef"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"122\nCalories\n\n\n3g \nFat\n\n\n11g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699642154-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/d7Zhmv2rM7dT-o_ZR8K6SHJ5yHs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(719x639:721x641):format(webp)/GettyImages-510617237-2000-e896a2c04498418cbe945ee652327293.jpg"
@@ -462,59 +787,55 @@
 The Best Japanese Street Food Snacks, Appetizers, and Small Bites</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/the-best-japanese-snacks-and-small-bites/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>The Best Japanese Street Food Snacks, Appetizers, and Small Bites</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"With this collection of Japanese appetizer recipes, we're takin' it to the street! Take a peek at our best Japanese street food recipes, appetizers, and tiny nibbles — from classic skewers like yakitori to super-simple pre-dinner snacks like edamame. Then explore more Japanese street foods and small bites in our complete collection of Japanese Appetizers."},{"recipe_directions":"These grilled chicken skewers are classic food-on-a-stick street food that you can easily make at home. \"Chicken yakitori is an easy Japanese dish to make at home. Serve with white rice and sake for an easy but special meal!\" says ChefJackie. You might also like Beef Yakitori."},{"recipe_directions":"Panko is the key! \"Shrimp are seasoned and coated with crispy panko crumbs to make the easiest, tastiest deep-fried shrimp ever!\" says ait0shi."},{"recipe_directions":"Originally imported from China, gyoza are pan-fried Japanese dumplings filled with a savory mixture of ground pork and Japanese flavors. Perfect starters to a Japanese meal or as party appetizers. Enjoy with a simple dipping sauce made with soy sauce and vinegar."},{"recipe_directions":"\"This is one of those foods that come in many different variations in Japan,\" says garywhinton. \"They are served primarily on a stick, but you can also get them in soups, bentos, as a main dish, etc. It became a family favorite almost instantly.\""},{"recipe_directions":"These yummy Japanese croquettes combine ground beef with mashed potatoes and onions -- formed into patties, coated with panko, and deep fried to a golden brown. \"Absolutely mouth-watering!\" raves RUBYRONG. \"They make a delicious snack! I prefer to make them in smaller bite-size pieces so it's easier to pick up with fingers. Serve with Tonkatsu sauce.\""},{"recipe_directions":"\"This is a simple yet delicious Japanese-style fried chicken flavored with ginger, garlic and sake and soy sauce,\" says Brenda Sawyer Adamson. \"It even tastes good cold; my mom used to make this to take with us on picnics.\""},{"recipe_directions":"Crispy fried cubes of tofu are served with chopped green onions and a tasty sauce.\"This quick and easy Japanese fried tofu recipe is a great appetizer,\" says ChefJackie."},{"recipe_directions":"Chicken wings are marinated in a salted, Japanese-style marinade, dipped in cornstarch and deep-fried until crispy. \"Crispy, fried, salty chicken wings - Japanese-style!\" says ZAYO. \"Delicious as a hot starter or snack eaten with soy sauce and fresh lemon juice.\""},{"recipe_directions":"With just 3 simple ingredients, you can make your own tempura batter. Then go to town! Coat your favorite meats and vegetables and fry into light and delicious appetizers. \"Perfect and so easy!\" says SunnyDaysNor. \"Very light batter.\""},{"recipe_directions":"\"If 'teri' means 'shine,' and 'yaki' refers to grilling, then these chicken skewers are the poster children for teriyaki,\" says Chef John. \"Marinated in soy sauce, sake, and mirin, the chicken is grilled to sweet, smoky perfection and dipped in a refreshing, herby miso 'ranch' sauce. Garnish with sesame seeds if desired.\""},{"recipe_directions":"Meet the amazing Japanese-inspired egg salad sandwich that's vaulted from convenience store snack to international sensation. The soft, buttery, slightly sweet Japanese milk bread is one reason for its success. Another reason, is the super-savory Kewpie mayonnaise, which Chef John approximates here."},{"recipe_directions":"\"This easy edamame (soybean) recipe served with a dip is a great quick appetizer that can be whipped up in a few minutes,\" says ChefJackie. \"Edamame also make a healthy vegan snack.\""},{"recipe_directions":"Okonomiyaki griddle cakes are like a Japanese pancake combining flour, eggs, cabbage, and...whatever you like -- literally. \"'Okonomi' means 'whatever you like' and 'yaki' means 'cook or fry,'\" explains Sherbg. \"Serve with your favorite sauce: sweet and sour, Tonkatsu, sweet chili, etc.\""},{"recipe_directions":"Aji nori furikake is a seaweed and sesame rice seasoning that's often sprinkled over rice, fish, and veggie dishes. Here, you'll toss it with crispy corn and rice cereal and sugar and corn syrup for a sweet and salty sensation. \"It's a popular Hawaii snack a crowd-pleaser!\" says Laurie Sueko Lau."},{"recipe_directions":"Thinly-sliced pieces of steak are marinated in a savory-sweet mix of rice vinegar and soy, and rolled around pieces of green onion. Broiled on bamboo skewers, they make a tasty little appetizer bite. \"Amazing!\" raves spencersmom. \"Our whole family loved it and said it was a new family favorite!\""},{"recipe_directions":"Japanese-style rice balls are a delicious way to reuse leftover rice. \"Fair number of ingredients, but this really is pretty easy to make,\" says lutzflcat. \"Would suggest you don't chop your shrimp too small, so you get a nice pop of that succulent shrimp when you bite into the croquette.\""},{"recipe_directions":"This flavorful chicken sandwich features Japanese karaage-style fried chicken (boneless thighs), a tangy slaw, and a white miso mayonnaise with grated ginger and garlic, soy sauce, and honey. \"I also like to top the sandwich with Sriracha (or whatever hot sauce you like), but that's optional,\" says Curtis Williams, who submitted the recipe."},{"recipe_directions":"These Japanese pork and leek gyoza are crunchy, juicy pockets of goodness filled with deliciously spiced pork and served with a tasty dipping sauce. \"Eating one will just not do,\" says Aroma and Essence."},{"recipe_directions":"Customizable and convenient, onigiri can go just about anywhere. This recipe uses bonito as a filling, but feel free to experiment with different kinds of meats, fish, and pickles. Grilled salmon, tuna and mayonnaise, and pickled plums are especially popular fillings."},{"recipe_directions":"Soft, chewy dango is simple to make and super customizable. \"I have tried green tea powder, strawberry, lemon, melon, cinnamon, cappucino, and chocolate flavorings. And all turned out fabulous,\" says community member Carrot Cake. \"It's so easy to make, too! I just dump everything to food processor and process it for a 10 or 15 seconds before pouring it into the lightly greased pan. Fool proof.\""}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Asian"},{"recipe_tags":"Japanese"},{"recipe_tags":"Appetizers"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699642157-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ITovOgm8OshOQ1xZGBn38wD_Js0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4468284-tuna-tartare-Penprapha-Boonpoon-4x3-1-d0613a46aaae4befb2b4f9510811568c.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/75439/tuna-tartare/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Tuna Tartare</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n1 tablespoon sesame seeds\n\n\n¼ teaspoon wasabi powder\n\n\n⅛ teaspoon cracked black pepper\n\n\n1 pound sushi grade tuna, finely diced\n\n\n  sliced French bread"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n1 tablespoon sesame seeds\n\n\n¼ teaspoon wasabi powder\n\n\n⅛ teaspoon cracked black pepper\n\n\n1 pound sushi grade tuna, finely diced\n\n\n  sliced French bread'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine olive oil, sesame seeds, wasabi, and black pepper in a bowl. Add tuna and toss until evenly coated. Adjust seasoning as desired with additional wasabi powder or black pepper. Serve on sliced French bread."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"366\nCalories\n\n\n10g \nFat\n\n\n43g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699642160-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LS4eCU1rNQZw8t7pAGEnEP7zmT8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/13110-1383f14f31ad43b1992337a266488544.jpg"
@@ -593,59 +910,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/25316/vegetarian-nori-rolls/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Vegetarian Nori Rolls</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups uncooked short-grain white rice\n\n\n2 ¼ cups water\n\n\n¼ cup soy sauce\n\n\n2 teaspoons honey\n\n\n1 teaspoon minced garlic\n\n\n3 ounces firm tofu, cut into 1/2 inch strips\n\n\n2 tablespoons rice vinegar\n\n\n4 sheets nori seaweed sheets\n\n\n½  cucumber, julienned\n\n\n½  avocado, julienned\n\n\n1 small carrot, julienned"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups uncooked short-grain white rice\n\n\n2 ¼ cups water\n\n\n¼ cup soy sauce\n\n\n2 teaspoons honey\n\n\n1 teaspoon minced garlic\n\n\n3 ounces firm tofu, cut into 1/2 inch strips\n\n\n2 tablespoons rice vinegar\n\n\n4 sheets nori seaweed sheets\n\n\n½  cucumber, julienned\n\n\n½  avocado, julienned\n\n\n1 small carrot, julienned'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large saucepan cover rice with water and let stand for 30 minutes."},{"recipe_directions":"In a shallow dish combine soy sauce, honey, and garlic. In this mixture, marinate tofu for at least 30 minutes."},{"recipe_directions":"Bring water and rice to a boil and then reduce heat; simmer for about 20 minutes, or until thick and sticky. In a large glass bowl, combine cooked rice with rice vinegar."},{"recipe_directions":"Place a sheet of nori on a bamboo mat. Working with wet hands, spread 1/4 of rice evenly over nori; leave about 1/2 inch on the top edge of the nori. Place 2 strips of marinated tofu end to end about 1 inch from the bottom. Place 2 strips of cucumber next to tofu, then avocado and carrot."},{"recipe_directions":"Roll nori tightly from the bottom, using the mat to help make a tight roll. Seal by moistening the top 1/2 inch with water. Repeat with remaining ingredients. Slice with a serrated knife into 1-inch thick slices."},{"recipe_directions":"The nutrition data for this recipe includes information on the full amount of the marinade ingredients. Depending on marinating time, ingredients, and cooking method, the actual amount of marinade consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"289\nCalories\n\n\n5g \nFat\n\n\n54g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699642165-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/aNmkunly7wygYNt25hoWRwsFv3E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/235369-2f99104067834ca2b8ba4178e99eca41.jpg"
@@ -658,59 +971,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/88049/yummylicious-japanese-beef-croquettes/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Yummylicious Japanese Beef Croquettes</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 medium russet potatoes, peeled and chopped\n\n\n1 tablespoon butter\n\n\n1 tablespoon vegetable oil\n\n\n3 onions, chopped\n\n\n¾ pound ground beef\n\n\n4 teaspoons light soy sauce\n\n\nall-purpose flour for coating\n\n\n2 large eggs, beaten\n\n\npanko bread crumbs\n\n\n½ cup oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 medium russet potatoes, peeled and chopped\n\n\n1 tablespoon butter\n\n\n1 tablespoon vegetable oil\n\n\n3 onions, chopped\n\n\n¾ pound ground beef\n\n\n4 teaspoons light soy sauce\n\n\nall-purpose flour for coating\n\n\n2 large eggs, beaten\n\n\npanko bread crumbs\n\n\n½ cup oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Add potatoes to a large pot of salted water and bring to a boil; cook until tender, about 15 minutes. Drain and pour potatoes into a large bowl. Stir in butter and mash with a fork or potato masher. Set aside."},{"recipe_directions":"Heat 1 tablespoon oil in a large skillet over medium heat. Stir in onions and cook until soft. Stir in beef and soy sauce. Cook, stirring continuously, until beef is browned and all the liquid is evaporated. Combine beef and onions with potatoes, and stir well."},{"recipe_directions":"Heat 1/2 cup oil in a deep skillet or wok over medium-high heat."},{"recipe_directions":"Shape potato and beef mixture into 10 similarly sized balls, then flatten into patties. Dredge patties in flour, then dip in egg, and coat with panko bread crumbs. Carefully place patties into oil and fry until golden brown on each side."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Meatball Appetizer Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n14g \nFat\n\n\n20g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699642170-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hOavE2nWZQ3P75V1nKP86-ud6R4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/35974-70078f15a14149ed838f81c53e33e99b.jpg"
@@ -723,59 +1032,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16005/broiled-mochi-with-nori-seaweed/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Broiled Mochi with Nori Seaweed</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  frozen mochi squares\n\n\n¼ cup soy sauce, or to taste\n\n\n1 sheet nori (dry seaweed)"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  frozen mochi squares\n\n\n¼ cup soy sauce, or to taste\n\n\n1 sheet nori (dry seaweed)'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (275 degrees C)."},{"recipe_directions":"Dip mochi into soy sauce, then place onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until heated through, about 5 minutes."},{"recipe_directions":"Meanwhile, cut nori into eight strips. Heat strips in a large skillet over medium heat until warm, 1 to 2 minutes. Remove from the heat."},{"recipe_directions":"Wrap a nori strip around each mochi. Serve warm."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of soy sauce. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"105\nCalories\n\n\n0g \nFat\n\n\n23g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699642174-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dmBZPZwNp2arwfOWaMZIlZIViYM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1115452-611865b8501c48deb83576acc1f4fe34.jpg"
@@ -788,59 +1093,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236525/japanese-deviled-eggs/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Japanese Deviled Eggs</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n18 \n\n\nYield:\n18 deviled eggs"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"9 large eggs\n\n\n2 tablespoons sesame seeds\n\n\n½ cup mayonnaise\n\n\n2 teaspoons soy sauce\n\n\n2 teaspoons wasabi paste\n\n\n2 teaspoons rice wine vinegar\n\n\n4 tablespoons panko bread crumbs\n\n\n2 tablespoons thinly sliced green onions"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '9 large eggs\n\n\n2 tablespoons sesame seeds\n\n\n½ cup mayonnaise\n\n\n2 teaspoons soy sauce\n\n\n2 teaspoons wasabi paste\n\n\n2 teaspoons rice wine vinegar\n\n\n4 tablespoons panko bread crumbs\n\n\n2 tablespoons thinly sliced green onions'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place eggs in a saucepan; cover with water. Bring to a boil, remove from heat, and let eggs stand in hot water for 15 minutes. Remove eggs from hot water, cool under cold running water, and peel."},{"recipe_directions":"Place sesame seeds in a dry skillet over medium heat; cook and stir until lightly browned, about 3 minutes. Remove to cool on a paper towel-lined plate."},{"recipe_directions":"Cut each egg in half lengthwise; place egg yolks into a food processor with mayonnaise, soy sauce, wasabi paste, and rice vinegar. Process until smooth; add bread crumbs and green onion to yolk mixture and pulse just enough to mix evenly."},{"recipe_directions":"Arrange egg white halves on a serving platter; spoon yolk mixture into whites. Sprinkle with toasted sesame seeds."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Deviled Eggs"},{"recipe_tags":"Spicy Deviled Egg Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"91\nCalories\n\n\n8g \nFat\n\n\n2g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699642178-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8T-1loKHHsjhUe_FTmYKhHo7CYI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-22-84a9fc2a375b4e3c919e69a152220c0b.jpg"
@@ -854,59 +1155,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/279637/japanese-oyster-shooters/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Japanese Oyster Shooters</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup mirin (Japanese sweet wine)\n\n\n3 tablespoons sake\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon rice wine vinegar\n\n\n1 teaspoon wasabi powder\n\n\n12  fresh oysters\n\n\n6  quail eggs\n\n\n¾ teaspoon tobiko (flying fish roe)\n\n\n6  lemon wedges"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup mirin (Japanese sweet wine)\n\n\n3 tablespoons sake\n\n\n2 tablespoons soy sauce\n\n\n1 tablespoon rice wine vinegar\n\n\n1 teaspoon wasabi powder\n\n\n12  fresh oysters\n\n\n6  quail eggs\n\n\n¾ teaspoon tobiko (flying fish roe)\n\n\n6  lemon wedges'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together mirin, sake, soy sauce, rice wine vinegar, and wasabi powder in a bowl. Allow mixture to sit at room temperature until sediments sink to the bottom of the bowl, about 2 hours."},{"recipe_directions":"Shuck oysters; place 2 oysters in each shooter glass."},{"recipe_directions":"Ladle 2 tablespoons mirin mixture into each glass, without disturbing sediments at the bottom."},{"recipe_directions":"Crack 1 quail egg into each glass. Top each with 1/8 teaspoon tobiko and garnish with lemon wedges. Serve immediately."},{"recipe_directions":"This recipe contains raw eggs. We recommend that young children, older adults, and people who are pregnant or immunocompromised do not consume raw eggs. Learn more about egg safety from our article, How to Make Your Eggs Safe."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Seafood"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"157\nCalories\n\n\n3g \nFat\n\n\n14g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699642182-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SduaAF68b00Ntf6XFTr_s_2CwvQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1928534-011711f28c2444a09c9630460fcebc09.jpg"
@@ -919,59 +1216,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/99795/okonomiyaki/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Okonomiyaki</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup chopped cooked chicken\n\n\n1 ½ cups thinly sliced napa cabbage\n\n\n¼ cup shredded carrots\n\n\n3  green onions, chopped\n\n\n12  fresh green beans, cut into 1/2 inch pieces\n\n\n1 small green bell pepper, cut into thin strips\n\n\n1 small zucchini, cut into thin strips\n\n\n3 large eggs, lightly beaten\n\n\n¾ cup all-purpose flour\n\n\n¾ cup chicken stock\n\n\n2 teaspoons soy sauce\n\n\n1 teaspoon vegetable oil\n\n\n¼ teaspoon toasted sesame oil"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup chopped cooked chicken\n\n\n1 ½ cups thinly sliced napa cabbage\n\n\n¼ cup shredded carrots\n\n\n3  green onions, chopped\n\n\n12  fresh green beans, cut into 1/2 inch pieces\n\n\n1 small green bell pepper, cut into thin strips\n\n\n1 small zucchini, cut into thin strips\n\n\n3 large eggs, lightly beaten\n\n\n¾ cup all-purpose flour\n\n\n¾ cup chicken stock\n\n\n2 teaspoons soy sauce\n\n\n1 teaspoon vegetable oil\n\n\n¼ teaspoon toasted sesame oil'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a large bowl, mix chicken, cabbage, carrots, green onions, green beans, green bell pepper, and zucchini. In a separate bowl, beat together eggs, flour, chicken stock, and soy sauce. Pour batter over chicken mixture and toss to thoroughly coat."},{"recipe_directions":"Mix vegetable oil and sesame oil in a skillet over medium heat. Scoop about 1/4 cup batter into skillet, enough to make a 2 1/2 inch circle. Cover and cook 4 minutes, or until the bottom is golden brown. Flip and continue cooking 4 minutes, or until cooked through. Drain on paper towels."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"},{"recipe_tags":"Zucchini Appetizer Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"156\nCalories\n\n\n5g \nFat\n\n\n16g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699642186-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/y_jqTwYnUCM0eYLsmVh0OOZHTWw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/821626-5416f8c9c69b4209a29dfd8bcda5e8ce.jpg"
@@ -984,59 +1277,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/217114/tofu-hiyayakko/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Tofu Hiyayakko</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon soy sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon dashi granules\n\n\n½ teaspoon water\n\n\n¼ (12 ounce) package silken tofu\n\n\n1 ½ teaspoons grated fresh ginger root\n\n\n¼ teaspoon thinly sliced green onion\n\n\n1 pinch bonito shavings (dry fish flakes)\n\n\n1 pinch toasted sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon soy sauce\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon dashi granules\n\n\n½ teaspoon water\n\n\n¼ (12 ounce) package silken tofu\n\n\n1 ½ teaspoons grated fresh ginger root\n\n\n¼ teaspoon thinly sliced green onion\n\n\n1 pinch bonito shavings (dry fish flakes)\n\n\n1 pinch toasted sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix the soy sauce, sugar, dashi granules, and water together in small bowl until sugar dissolves. Place the tofu on a small plate and top with ginger, green onion, and bonito shavings. Drizzle the soy mixture on top, and sprinkle with sesame seeds."},{"recipe_directions":"If you make this soy-dashi dressing (Tsuyu) a lot, it can be refrigerated about a week. You can use it for anything like boiled spinach, salad, steamed fish, boiled chicken, and so on."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"100\nCalories\n\n\n5g \nFat\n\n\n8g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699642190-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KxtIP15szaqt4CnZp0VWKH9mVIk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6579910-sweet-potato-tempura-Princess-Cindy-4x3-1-abb005f886d942a380ed6cf1d23906f3.jpg"
@@ -1050,59 +1339,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245693/sweet-potato-tempura/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sweet Potato Tempura</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs\n\n\n¾ cup ice water\n\n\n3 tablespoons ice water\n\n\n¾ cup all-purpose flour\n\n\n1 tablespoon all-purpose flour\n\n\n½ teaspoon salt\n\n\n2 cups oil for frying\n\n\n1 large sweet potato, scrubbed and sliced into 1/8-inch slices"},{"recipe_ingredients":"¼ cup rice wine\n\n\n¼ cup soy sauce"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs\n\n\n¾ cup ice water\n\n\n3 tablespoons ice water\n\n\n¾ cup all-purpose flour\n\n\n1 tablespoon all-purpose flour\n\n\n½ teaspoon salt\n\n\n2 cups oil for frying\n\n\n1 large sweet potato, scrubbed and sliced into 1/8-inch slices'}, {'recipe_ingredients': '¼ cup rice wine\n\n\n¼ cup soy sauce'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make the tempura: Beat eggs in a large bowl until frothy. Stir in 3/4 cup plus 3 tablespoons ice water, 3/4 cup plus 1 tablespoon flour, and salt until just incorporated; batter should still be very lumpy."},{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 350 degrees F (175 degrees C). Set a wire rack over several layers of paper towels."},{"recipe_directions":"Dry sweet potato slices with paper towels. Dip three slices into batter, letting excess batter drip back into the bowl. Fry in the preheated oil until golden brown, about 2 minutes per side. Use a slotted spoon to transfer sweet potatoes to the wire rack. Repeat to dip and fry remaining sweet potatoes."},{"recipe_directions":"Make the dipping sauce: Whisk rice wine and soy sauce together in a small bowl. Serve with tempura."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of batter and dipping sauce ingredients. The actual amount consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"315\nCalories\n\n\n14g \nFat\n\n\n36g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699642195-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_7GyMf9XE1WhnEiSt15F1WWQkOM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2461x2022:2463x2024):format(webp)/RM-169856-CreamCheeseandCrabSushiRolls-ddmfs-3x4-6421-8d233e210db3458f8574bafad1c69e70.jpg"
@@ -1116,59 +1401,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/169856/cream-cheese-and-crab-sushi-rolls/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Cream Cheese and Crab Sushi Rolls</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n2 \n\n\nYield:\n2 sushi rolls"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup uncooked white rice\n\n\n2 cups water\n\n\n2 tablespoons rice vinegar\n\n\n1 teaspoon salt\n\n\n2 sheets nori seaweed sheets\n\n\n¼  cucumber, peeled and sliced lengthwise\n\n\n2 pieces imitation crab legs\n\n\n½ (3 ounce) package cream cheese, sliced\n\n\n1 teaspoon minced fresh ginger root"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup uncooked white rice\n\n\n2 cups water\n\n\n2 tablespoons rice vinegar\n\n\n1 teaspoon salt\n\n\n2 sheets nori seaweed sheets\n\n\n¼  cucumber, peeled and sliced lengthwise\n\n\n2 pieces imitation crab legs\n\n\n½ (3 ounce) package cream cheese, sliced\n\n\n1 teaspoon minced fresh ginger root'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Bring rice and water to a boil in a saucepan over high heat. Reduce heat to medium-low, cover, and simmer until the rice is tender, and the liquid has been absorbed, 20 to 25 minutes. Stir in rice vinegar and salt. Allow to cool completely."},{"recipe_directions":"Lay out seaweed sheets. Moisten hands with water, then spread cooled rice evenly on each sheet, leaving a 1/2-inch gap along one edge, lengthwise. Arrange strips of cucumber, imitation crabmeat, and cream cheese on top of the rice in a straight line along the side opposite the gap. Roll up sushi from the toppings to the seaweed sheet's exposed end."},{"recipe_directions":"Using a sharp wet knife, slice each roll into 5 or 6 pieces. Serve with minced ginger on the side."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"444\nCalories\n\n\n8g \nFat\n\n\n80g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699642202-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17490/world-cuisine/asian/japanese/appetizers/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/G-Ab9te-e2x35n6TFVZYLWvNZUU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1595x1042:1597x1044):format(webp)/221923-japanese-tamago-egg-F-D-4x3-7c337ae6d99f41258db7959eaff3ef4f.jpg"
@@ -1182,42 +1463,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/221923/japanese-tamago-egg/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Japanese Tamago Egg</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  eggs\n\n\n1/4 cup prepared dashi stock\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon mirin (Japanese sweet wine)\n\n\n1/2 teaspoon soy sauce\n\n\n1/2 teaspoon vegetable oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  eggs\n\n\n1/4 cup prepared dashi stock\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon mirin (Japanese sweet wine)\n\n\n1/2 teaspoon soy sauce\n\n\n1/2 teaspoon vegetable oil, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This top-rated tamago recipe seems intimidating, but it’s surprisingly easy to make at home!"},{"recipe_directions":"Tamago (a.k.a. tamagoyaki) is a Japanese omelet. It’s made by rolling together thin layers of fried eggs, then slicing the log into rectangles. Since the egg is mixed with dashi, sugar, and mirin, the finished product has a complex and subtly sweet flavor. Tamago is traditionally served for breakfast or as a sushi ingredient."},{"recipe_directions":"These are the ingredients you’ll need to make this tamago recipe:"},{"recipe_directions":"You’ll find the full, step-by-step recipe below – but here’s a brief overview of what you can expect when you make tamago at home:"},{"recipe_directions":"Tip from recipe creator Pokerman11: It is best to use a tamago pan, which is a 5x7-inch square nonstick frying pan, but any small pan will work — you just won't have square ends on your finished omelet."},{"recipe_directions":"Enjoy the homemade tamago right away or freeze it for up to two weeks. Thaw overnight in the refrigerator."},{"recipe_directions":"“This was a great recipe,” according to one Allrecipes community member. “I did not have the dashi, so I substituted with chicken broth and a splash of seasoned rice wine vinegar. It was great.”"},{"recipe_directions":"“So yummy and easy,” raves NicholeB. “I used a round skillet and it worked great. Probably not as pretty, but tasted fantastic.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Beat eggs thoroughly in a bowl; whisk in dashi stock, sugar, mirin, and soy sauce until sugar has dissolved."},{"recipe_directions":"Lightly grease a nonstick skillet and heat over medium heat."},{"recipe_directions":"Pour a thin layer of egg mixture into the hot pan and swirl to coat the pan. Cook until egg layer is firm on the bottom but still slightly liquid on top, about 1 minute. Then lift up one edge using a spatula and roll up the egg layer. Push omelet roll to one side of the skillet. Oil the skillet again and pour in another thin layer of egg, lifting the first omelet roll up slightly to allow the egg to flow underneath; roll up the first omelet in the new layer of egg and push omelet to the edge of the skillet as before. Repeat the process with the remaining egg mixture, oiling the pan each time if needed."},{"recipe_directions":"Remove rolled omelet to a serving platter and cut into 6 equal pieces to serve."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"63\nCalories\n\n\n4g \nFat\n\n\n3g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>